--- a/data/hotels_by_city/Houston/Houston_shard_325.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_325.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="351">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1197126-Reviews-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-And-Suites-HOU-I-10-West-Energy-Corridor.h6884.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,931 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r589531839-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1197126</t>
+  </si>
+  <si>
+    <t>589531839</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Thank you! Spacious room. Friendly staffs . They cleaned my room twice in a day . My child made a mess in the room and so I called to have it cleaned again (if possible). They sent someone right away who tidied it up . I was expected to be turned down and they were very polite and happy to help. I would recommend this 100 percent . Amazing staffs makes you feel at home , great location. Great gym and amenities and good scenery . I love it. Thank you</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r558100308-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558100308</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay!</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights and I enjoyed my stay. Are there better hotels?...sure, but when the office is in the neighbourhood this hotel is a good choice. My room 518 was not damp, had a renovated bathroom and was well maintained. Front desk was awesome, great service. Ask a question and they will try there best. Jasmine you are a star!The hotel offers free wine and beer late in the afternoon. In the morning the BF offers a wide choice. BF was included in the day rate. There were plenty if news papers to read. The only thing that disturbed me was the noise of the traffic as my room was facing I-10. Not a suprise because my bedroom at home is really quiet. I will come back. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights and I enjoyed my stay. Are there better hotels?...sure, but when the office is in the neighbourhood this hotel is a good choice. My room 518 was not damp, had a renovated bathroom and was well maintained. Front desk was awesome, great service. Ask a question and they will try there best. Jasmine you are a star!The hotel offers free wine and beer late in the afternoon. In the morning the BF offers a wide choice. BF was included in the day rate. There were plenty if news papers to read. The only thing that disturbed me was the noise of the traffic as my room was facing I-10. Not a suprise because my bedroom at home is really quiet. I will come back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r499267868-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499267868</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Ok-ish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is friendly. Our room smelled like wet dog and our bathroom smelled like poop. The sheets were itchy and stained with all kinds of bodily fluids. The drink vending machines were not stocked and ate my money without refund. The location is great for access to all the major highways. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r457583824-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457583824</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Average Budget Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is a bit dated but clean. The staff was friendly and helpful. A shuttle to and from my place of business for the week was extremely helpful. The quality of the bed was not very good, so I didn't sleep well the five days I was there. That is my biggest negative. The bathroom counter is just not big enough to accommodate female guests' toiletries. The wash cloths were fine but hand and bath towels seemed old. Value was fine for a budget hotel until the last two days where they jumped $30/night. The breakfast is pretty standard for this type of hotel. The lady servicing the area was excellent and extremely friendly.The restaurant you can walk to next door has good food but it's very loud in there. Get your order to-go and you'll be fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is a bit dated but clean. The staff was friendly and helpful. A shuttle to and from my place of business for the week was extremely helpful. The quality of the bed was not very good, so I didn't sleep well the five days I was there. That is my biggest negative. The bathroom counter is just not big enough to accommodate female guests' toiletries. The wash cloths were fine but hand and bath towels seemed old. Value was fine for a budget hotel until the last two days where they jumped $30/night. The breakfast is pretty standard for this type of hotel. The lady servicing the area was excellent and extremely friendly.The restaurant you can walk to next door has good food but it's very loud in there. Get your order to-go and you'll be fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r448602935-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448602935</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Didn't learn my lesson from last time very well</t>
+  </si>
+  <si>
+    <t>I had written an average review about this property back in 2013.  I guess I forgot what kind of experience that was and expected better. Not really this time around.  It's not up to a typical HIE standard.  The property is obviously showing its age.  The entire place seems to be sprayed with chemical/freshener to keep the other odors down.  The first room I went into completely stunk.  The second was OK but still not up to par.  Despite the lower price for the area I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>I had written an average review about this property back in 2013.  I guess I forgot what kind of experience that was and expected better. Not really this time around.  It's not up to a typical HIE standard.  The property is obviously showing its age.  The entire place seems to be sprayed with chemical/freshener to keep the other odors down.  The first room I went into completely stunk.  The second was OK but still not up to par.  Despite the lower price for the area I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r409774811-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>409774811</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>We ate at the bar/Restaurant.</t>
+  </si>
+  <si>
+    <t>This was a great surprise. They have a very nice place in there and the service was very friendly and attentive. I has the steakhouse and it was a great quantity steak that was cooked perfectly. I will definitely go there again. Everyone really liked their Dinners.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>This was a great surprise. They have a very nice place in there and the service was very friendly and attentive. I has the steakhouse and it was a great quantity steak that was cooked perfectly. I will definitely go there again. Everyone really liked their Dinners.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r350583589-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350583589</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Business Trip to Houston</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and the personal where very friendly and courteous. The breakfast was very good and their was a good verity of item to choose from. The location is kind of tricky to get to but their is a great stake house right next door. Overall our stay was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and the personal where very friendly and courteous. The breakfast was very good and their was a good verity of item to choose from. The location is kind of tricky to get to but their is a great stake house right next door. Overall our stay was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r342132370-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342132370</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>Great Location, Great Staff, Nice Hotel</t>
+  </si>
+  <si>
+    <t>This is the second time i've stayed here, the staff are always very pleasant and helpful, and the rooms are comfortable (although the water pressure at the taps (faucets) needs looking in to as it's lacking in my opinion). Wifi is good, slightly irritating the password has to be put in every 24 hours though. Breakfast is good, plenty of selection although it's missing some bacon i think. (big fan of bacon). Top marks for the cookies on the front desk too, excellent!The hotel is pretty close to a main shopping center too, and quite a few food outlets, although the one outside the hotel has let me down on 2 occasions now so i won't be returning.Thanks to all the staff for making my stay pleasant. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>This is the second time i've stayed here, the staff are always very pleasant and helpful, and the rooms are comfortable (although the water pressure at the taps (faucets) needs looking in to as it's lacking in my opinion). Wifi is good, slightly irritating the password has to be put in every 24 hours though. Breakfast is good, plenty of selection although it's missing some bacon i think. (big fan of bacon). Top marks for the cookies on the front desk too, excellent!The hotel is pretty close to a main shopping center too, and quite a few food outlets, although the one outside the hotel has let me down on 2 occasions now so i won't be returning.Thanks to all the staff for making my stay pleasant. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r339814463-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339814463</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Great location, enjoyable stay”</t>
+  </si>
+  <si>
+    <t>I stayed at Holiday Inn Express. The location is perfect. The reception staff are very friendly, extremely helpful and were clearly very proud of their city. The rooms were well appointed and comfortable and the breakfast was delicious - you can squeeze your own fresh orange juice. A special thanks to reception staff -MOAZZAM who assisted me everything. This was well beyond good service Thank you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r327555282-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327555282</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>PATHETIC SERVICE</t>
+  </si>
+  <si>
+    <t>i agree that the service of the hotel staff was rude and insulting, i was staying their at the same time and they are not equipped to handle group bookings or group pressure.they take full advance payment when u check in so  you are at the mercy of the staff if they decide to throw you out.they were actually rationing the breakfast and the words used were "people are over eating"   they need to train their staff in customer satisfactionMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>i agree that the service of the hotel staff was rude and insulting, i was staying their at the same time and they are not equipped to handle group bookings or group pressure.they take full advance payment when u check in so  you are at the mercy of the staff if they decide to throw you out.they were actually rationing the breakfast and the words used were "people are over eating"   they need to train their staff in customer satisfactionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r327084663-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327084663</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Pathetic Customer Service</t>
+  </si>
+  <si>
+    <t>I had recently put up at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor for about 15 days (from 11th Oct – 25th Oct 2015)  and those 15 days were nothing but nightmare for me and my family. Right from the hotel staff to food to customer service. Everything was below par. There was rationing of breakfast and few times there was no breakfast for my family. In fact my child was not served milk as well. The hotel staff was rude and never apologized, in fact they found excuses to cover up their mistakes.No inspection or review of rooms are done during checking out and random amount got debited from my card on grounds of broken furniture. I was surprised and amzed to know these things after my departure. Please don’t trust this hotel. They will make shady transactions if you find faults in their services.I am a loyal IHG club member, but after this pathetic experience, my trust in IHG brands will be reconsidered.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded December 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2015</t>
+  </si>
+  <si>
+    <t>I had recently put up at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor for about 15 days (from 11th Oct – 25th Oct 2015)  and those 15 days were nothing but nightmare for me and my family. Right from the hotel staff to food to customer service. Everything was below par. There was rationing of breakfast and few times there was no breakfast for my family. In fact my child was not served milk as well. The hotel staff was rude and never apologized, in fact they found excuses to cover up their mistakes.No inspection or review of rooms are done during checking out and random amount got debited from my card on grounds of broken furniture. I was surprised and amzed to know these things after my departure. Please don’t trust this hotel. They will make shady transactions if you find faults in their services.I am a loyal IHG club member, but after this pathetic experience, my trust in IHG brands will be reconsidered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r299474156-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299474156</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Could Be Better</t>
+  </si>
+  <si>
+    <t>This is a good location at Dairy Ashford and I-10 (Katy Fwy) between Hwy 6 &amp; 8 close to restaurants and seemingly secure.  A few other similar hotels occupy the area giving one the feeling that businesses frequent these places with visiting staff or other related travelers.  Odd that this property has lots of security gates that appear to no longer be operable.  The public lobby and rooms look like they have just been updated.  Corridors on floors 2-5 have new carpet and wall coverings, but the wood trims look original and dated.  With a little further investment, this property would go from good to great.  RecommendedMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>SophieCA13, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>This is a good location at Dairy Ashford and I-10 (Katy Fwy) between Hwy 6 &amp; 8 close to restaurants and seemingly secure.  A few other similar hotels occupy the area giving one the feeling that businesses frequent these places with visiting staff or other related travelers.  Odd that this property has lots of security gates that appear to no longer be operable.  The public lobby and rooms look like they have just been updated.  Corridors on floors 2-5 have new carpet and wall coverings, but the wood trims look original and dated.  With a little further investment, this property would go from good to great.  RecommendedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r282217161-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282217161</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>We loved our stay!</t>
+  </si>
+  <si>
+    <t>My wife, daughter and I stayed here on a road trip. It's a wonderful place to stay. Everything was clean and neat. The pool and hot tub are indoor. There are multiple ice, vending and laundry stations. The staff was super friendly and helpful. The breakfast was good. There are multiple restaurants within walking distance. It was a great hotel experience! MoreShow less</t>
+  </si>
+  <si>
+    <t>SophieCA13, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2015</t>
+  </si>
+  <si>
+    <t>My wife, daughter and I stayed here on a road trip. It's a wonderful place to stay. Everything was clean and neat. The pool and hot tub are indoor. There are multiple ice, vending and laundry stations. The staff was super friendly and helpful. The breakfast was good. There are multiple restaurants within walking distance. It was a great hotel experience! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r281965114-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281965114</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Leave your Laptop at the house/office</t>
+  </si>
+  <si>
+    <t>Long Story Short: Don't stay in this hotel if you plan on doing business and need internet connection.This hotel is nice. However, the Holiday Inn Express in Austin is much nicer. For some reason, consistency is not in Holiday Inn's vocabulary. I chose to stay in this hotel because of the value and the ease of commute to my conference location. Staff was excellent, room was clean, very little complaints. Until I tried to utilize the wifi to get some work done. The connection speed is dismal. It almost makes more sense to use the data plan on your phone/tablet to get things done. Now, some of you may be thinking that I was attempted to download media or send enormous files via email. Nope. Just trying to use various search engines to research business opportunities.Would I recommend? Yes, if only to visit the plethora of shopping located nearby and ease of access to the highway (if you can see the turn-in) and not try to get important work done.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>SophieCA13, Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Long Story Short: Don't stay in this hotel if you plan on doing business and need internet connection.This hotel is nice. However, the Holiday Inn Express in Austin is much nicer. For some reason, consistency is not in Holiday Inn's vocabulary. I chose to stay in this hotel because of the value and the ease of commute to my conference location. Staff was excellent, room was clean, very little complaints. Until I tried to utilize the wifi to get some work done. The connection speed is dismal. It almost makes more sense to use the data plan on your phone/tablet to get things done. Now, some of you may be thinking that I was attempted to download media or send enormous files via email. Nope. Just trying to use various search engines to research business opportunities.Would I recommend? Yes, if only to visit the plethora of shopping located nearby and ease of access to the highway (if you can see the turn-in) and not try to get important work done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r273447449-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273447449</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Bad Booking - Great Hotel</t>
+  </si>
+  <si>
+    <t>I googled Holiday Inn, Pigeon Forge TN and it pulled up their webpage with an icon to click on to call for reservations.  It sent me to a third party, which was YOU instead to Holiday Inn.  I made the reservations with your agent with who I had to just about spell every word I gave him.  He gave me my confirmation number and said the email would be arriving which it did and I am glad it did.  When I got to the Hotel, the front desk clerk said that the credit card they were given by YOU was declined and I had to pay for the room with my credit card.  The next morning when I was checking out the manager asked to see the email confirmation from YOU and credited me back my refund of $114 which they charged me.  I questioned the amount since YOU charged me $157.  She stated that was their normal room rate.  You are a rip off and I will tell everyone I know not to go to your site to book anything.   MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I googled Holiday Inn, Pigeon Forge TN and it pulled up their webpage with an icon to click on to call for reservations.  It sent me to a third party, which was YOU instead to Holiday Inn.  I made the reservations with your agent with who I had to just about spell every word I gave him.  He gave me my confirmation number and said the email would be arriving which it did and I am glad it did.  When I got to the Hotel, the front desk clerk said that the credit card they were given by YOU was declined and I had to pay for the room with my credit card.  The next morning when I was checking out the manager asked to see the email confirmation from YOU and credited me back my refund of $114 which they charged me.  I questioned the amount since YOU charged me $157.  She stated that was their normal room rate.  You are a rip off and I will tell everyone I know not to go to your site to book anything.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r261334318-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261334318</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Decent Hotel undergoing renovations</t>
+  </si>
+  <si>
+    <t>Spent one night on business trip this last week. I was on the 5th floor. I asked for a renovated room after reading the buggy review. The hotel is undergoing renovations which were much needed. My view out the window was of a bunch of bathtubs, but no complaints here as I wasn't there to admire the view.  Tore up the bed &amp; peeked in the crannys &amp; nooks of room looking for bugs before bringing in my laptop &amp; travelbag. Slept great. The choice there seems to be a room that is older &amp; dingy and might be buggy VS a newly redone room that is a bit dusty. Housekeeping needs to step it up while all the work is going on. I would consider adding more staff till construction is all finished if I was management as the crew there was hardworking. Not a good hotel choice for anyone with asthma or breathing issues. Fine for overnight business travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Chelsie O, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Spent one night on business trip this last week. I was on the 5th floor. I asked for a renovated room after reading the buggy review. The hotel is undergoing renovations which were much needed. My view out the window was of a bunch of bathtubs, but no complaints here as I wasn't there to admire the view.  Tore up the bed &amp; peeked in the crannys &amp; nooks of room looking for bugs before bringing in my laptop &amp; travelbag. Slept great. The choice there seems to be a room that is older &amp; dingy and might be buggy VS a newly redone room that is a bit dusty. Housekeeping needs to step it up while all the work is going on. I would consider adding more staff till construction is all finished if I was management as the crew there was hardworking. Not a good hotel choice for anyone with asthma or breathing issues. Fine for overnight business travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r253790562-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253790562</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>friendly, clean, comfortable</t>
+  </si>
+  <si>
+    <t>Our recent stay at Holiday Inn pigeon forge was great. The rooms were clean and comfortable, the staff was friendly and helpful when we had a n need. The fireplace in the lobby was nice and cozy too. Would stay there again.   MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Chelsie O, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Our recent stay at Holiday Inn pigeon forge was great. The rooms were clean and comfortable, the staff was friendly and helpful when we had a n need. The fireplace in the lobby was nice and cozy too. Would stay there again.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r249734567-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249734567</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff; soon to be renovated. </t>
+  </si>
+  <si>
+    <t>I spent a week at this property for work and was pleased with the room and the amenities offered. The location is great for work with energy business in the area and the hotel offers a shuttle to area businesses. The staff was very friendly and the breakfast was a well executed and typical HIE breakfast. I also enjoyed the free beer for happy hour every evening from 5:30-6:30. My room was clean and, while it wasn't anything out of the ordinary, I was satisfied with the bed and the overall room. The hotel is just started a renovation, so I assume everything will be new and refreshed in the next few months. One word of caution - one of my co-workers had bed bugs in his room and he had bites all over him after his first night there. The hotel promptly moved him to another room and no one else in our work group had any other issues. Hopefully it was an isolated incident. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Chelsie O, Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>I spent a week at this property for work and was pleased with the room and the amenities offered. The location is great for work with energy business in the area and the hotel offers a shuttle to area businesses. The staff was very friendly and the breakfast was a well executed and typical HIE breakfast. I also enjoyed the free beer for happy hour every evening from 5:30-6:30. My room was clean and, while it wasn't anything out of the ordinary, I was satisfied with the bed and the overall room. The hotel is just started a renovation, so I assume everything will be new and refreshed in the next few months. One word of caution - one of my co-workers had bed bugs in his room and he had bites all over him after his first night there. The hotel promptly moved him to another room and no one else in our work group had any other issues. Hopefully it was an isolated incident. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r218073357-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>218073357</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel On Katy Freeway</t>
+  </si>
+  <si>
+    <t>This hotel was wonderful.  Must be recently renovated.  Room was nice.  Breakfast was great with many items to choose from.  Would definitely recommend to others.Safe secure parking.  Nice friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Chelsie O, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was wonderful.  Must be recently renovated.  Room was nice.  Breakfast was great with many items to choose from.  Would definitely recommend to others.Safe secure parking.  Nice friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r217427567-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217427567</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Excellent at everything</t>
+  </si>
+  <si>
+    <t>I do not write many reviews but when you stay at a place that does everything right and consistent day in and day out you have to let people know. Check in was very fast and very friendly ODAY checked me in, and made some recommendations on resturaunts and other local attractions, The room was cleaned perfect every day, housekeeping was always friendly, I will challlege you to find a spec of anything on the floors, haulway workout room or anywhere. The breakfast had lots to choose from, and was not the same everyday, and a large open room to get your food as well as a large dining area, refreshments in the evening are another nice touch. The shuttle service ran me over and picked me up from work, (a short distance). They called me a cab took care of everything with a smile. It was one of the best most consistently friendly staffs I have ever seen. ODAY, Vicente, Walda, Houston, Alesia and Chelsie were just a few of the folks that should be commended for this very well run Hotel. Thanks again I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chelsie O, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>I do not write many reviews but when you stay at a place that does everything right and consistent day in and day out you have to let people know. Check in was very fast and very friendly ODAY checked me in, and made some recommendations on resturaunts and other local attractions, The room was cleaned perfect every day, housekeeping was always friendly, I will challlege you to find a spec of anything on the floors, haulway workout room or anywhere. The breakfast had lots to choose from, and was not the same everyday, and a large open room to get your food as well as a large dining area, refreshments in the evening are another nice touch. The shuttle service ran me over and picked me up from work, (a short distance). They called me a cab took care of everything with a smile. It was one of the best most consistently friendly staffs I have ever seen. ODAY, Vicente, Walda, Houston, Alesia and Chelsie were just a few of the folks that should be commended for this very well run Hotel. Thanks again I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r212541581-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212541581</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for one night for a wedding.  It was a fare price and a nice property.  The front desk was nice and the room was comfortable.  The breakfast was plentiful and good.  We did not use any of the other amenities so I can't really speak to them.  I would stay there again when on that side of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Chelsie O, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded June 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for one night for a wedding.  It was a fare price and a nice property.  The front desk was nice and the room was comfortable.  The breakfast was plentiful and good.  We did not use any of the other amenities so I can't really speak to them.  I would stay there again when on that side of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r207906220-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207906220</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Would not stay again !</t>
+  </si>
+  <si>
+    <t>I had stayed at this property several years ago and disliked it then.  I assumed that it would be updated and modernized by the time I got back!  Clearly I was wrong.  The staff is very friendly which helps but that is the only thing this hotel has going for it!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Krupali S, Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>I had stayed at this property several years ago and disliked it then.  I assumed that it would be updated and modernized by the time I got back!  Clearly I was wrong.  The staff is very friendly which helps but that is the only thing this hotel has going for it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r199570129-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199570129</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Thank you to all you Reception laddies and to your service teem too.The room was comfortable and since the second day I called "home" -I'm tired, can we go home now?-, quiet, clean and we was sleeping like babies!We really enjoy a great time in your Hotel. Congratulations and thank you again!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r199319889-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199319889</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Spent two nights there and enjoyed the entire stay.  Room was well decorated, comfortable, and clean.  Internet speed was excellent and was free.  Hotel was quiet, even though very close to I10.  Parking was close and plenty of it.  The free breakfast was a full breakfast and was quite good with plenty of options. Cinnamon rolls are to die for!Rate was quite reasonable and the staff were all friendly and very helpful.  Great place to stay and we highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Krupali S, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Spent two nights there and enjoyed the entire stay.  Room was well decorated, comfortable, and clean.  Internet speed was excellent and was free.  Hotel was quiet, even though very close to I10.  Parking was close and plenty of it.  The free breakfast was a full breakfast and was quite good with plenty of options. Cinnamon rolls are to die for!Rate was quite reasonable and the staff were all friendly and very helpful.  Great place to stay and we highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r181281233-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181281233</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>Nice and new hotel with spacious suites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is nice with spacious suites. Staff is very accommodating and are always willing to help. I miss weights in Gym and Wi-Fi is not that great. Overall the hotel is great value for money and will consider it in future.  </t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r177173699-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177173699</t>
+  </si>
+  <si>
+    <t>09/14/2013</t>
+  </si>
+  <si>
+    <t>Horrible Staff</t>
+  </si>
+  <si>
+    <t>The lady who works during the day has horrible customer service and her english isn't coherent. She doesn't seem very knowledgeable of the operations either. She was very rude and short with her words. I felt that her apology wasn't sincere and I was not offered any other options. I was given a standard non-personalized apology letter and it wasn't even on letterhead paper. The hotel is very outdated for a Holiday Inn Express. The experience was not good, I would not stay there again. The lady who works overnight was very sincere and sympathetic, she was who I initially spoke with before the indian lady that morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded September 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2013</t>
+  </si>
+  <si>
+    <t>The lady who works during the day has horrible customer service and her english isn't coherent. She doesn't seem very knowledgeable of the operations either. She was very rude and short with her words. I felt that her apology wasn't sincere and I was not offered any other options. I was given a standard non-personalized apology letter and it wasn't even on letterhead paper. The hotel is very outdated for a Holiday Inn Express. The experience was not good, I would not stay there again. The lady who works overnight was very sincere and sympathetic, she was who I initially spoke with before the indian lady that morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r172448746-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172448746</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Holiday Inn comes through again</t>
+  </si>
+  <si>
+    <t>After Embassy was a disaster and $100 more, I was more than satisfied with booking with Holiday Inn.  With Embassy I had to wait a long time for the phone to be answered and the person on the end wasn't very clear.  At Holiday Inn I could immediately speak with someone on the phone who was interested in helping me.  The hotel staff are very friendly and I certainly enjoy the manager's happy hour in the evening.  (There could of been more options available too like other Holiday Inns.)Downside is that some of the furniture in the room is a bit dated (and large), but the room was generally clean.  I also liked the gate around the hotel property.  Otherwise, I would have rated this a 5 of 5.  No restaurant as part of the hotel but there is a great burger place that is adjacent to the parking lot.Word is you need to go around the side of the hotel to get into the property, but otherwise things are okay.  I was able to take a free shuttle to my local business destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>After Embassy was a disaster and $100 more, I was more than satisfied with booking with Holiday Inn.  With Embassy I had to wait a long time for the phone to be answered and the person on the end wasn't very clear.  At Holiday Inn I could immediately speak with someone on the phone who was interested in helping me.  The hotel staff are very friendly and I certainly enjoy the manager's happy hour in the evening.  (There could of been more options available too like other Holiday Inns.)Downside is that some of the furniture in the room is a bit dated (and large), but the room was generally clean.  I also liked the gate around the hotel property.  Otherwise, I would have rated this a 5 of 5.  No restaurant as part of the hotel but there is a great burger place that is adjacent to the parking lot.Word is you need to go around the side of the hotel to get into the property, but otherwise things are okay.  I was able to take a free shuttle to my local business destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r167661013-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167661013</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>pubic hair in bathtub</t>
+  </si>
+  <si>
+    <t>checked into this hotel. Pubic hair in tub. Place was filthy. When asked to talk to manager was told there wasn't one. No housekeeping either except in mornings. Got moved to a different room and it was still filthy- more hair in tub and boogers on wall. Front desk guy was very very nice and helpful- I showed him the filth in the room so he could let management know. Ended up going to a different hotel. Rooms were about the size if an inside stateroom on a cruise ship. Awful experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2013</t>
+  </si>
+  <si>
+    <t>checked into this hotel. Pubic hair in tub. Place was filthy. When asked to talk to manager was told there wasn't one. No housekeeping either except in mornings. Got moved to a different room and it was still filthy- more hair in tub and boogers on wall. Front desk guy was very very nice and helpful- I showed him the filth in the room so he could let management know. Ended up going to a different hotel. Rooms were about the size if an inside stateroom on a cruise ship. Awful experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r155897126-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155897126</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Quality poor with high rates (but it was clean)</t>
+  </si>
+  <si>
+    <t>It had cheap motel standards with luxury hotel rates -- maybe the rates were just that area's norms or the dates of my trip.  The hallway smelled like smoke, but that didn't seem to permeate the room.  The bed had a plastic cover under the sheets and the carpet crunched like there was plastic under it.  There was very little room to walk between the beds and the giant armoire but I had to do it because it had the old fashioned heat-AC combo by the window that could not hold a constant temperature. Walls were thin enough to hear everything in surrounding rooms and bathrooms.  The staff was nice, and the room was clean, but for those rates, I was very disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2013</t>
+  </si>
+  <si>
+    <t>It had cheap motel standards with luxury hotel rates -- maybe the rates were just that area's norms or the dates of my trip.  The hallway smelled like smoke, but that didn't seem to permeate the room.  The bed had a plastic cover under the sheets and the carpet crunched like there was plastic under it.  There was very little room to walk between the beds and the giant armoire but I had to do it because it had the old fashioned heat-AC combo by the window that could not hold a constant temperature. Walls were thin enough to hear everything in surrounding rooms and bathrooms.  The staff was nice, and the room was clean, but for those rates, I was very disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r155465843-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155465843</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Not up to Holiday Inn standard</t>
+  </si>
+  <si>
+    <t>I thought all the Holiday Inn at least in North America were renovated to a certain standard, which in my opinion this location certainly did not meet.  Lobby decorations and room furniture were all very old.  Even if they are going for that classic Texas look it's not very well done at all.  Light bulbs in the rooms are all bright white, not pleasant.  Would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>I thought all the Holiday Inn at least in North America were renovated to a certain standard, which in my opinion this location certainly did not meet.  Lobby decorations and room furniture were all very old.  Even if they are going for that classic Texas look it's not very well done at all.  Light bulbs in the rooms are all bright white, not pleasant.  Would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r135842652-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135842652</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is wonderful!! It is very clean, spacious and renovated!! When we arrived at the hotel, they gave us a complimentary upgrade to a 2 Queen Suite. It was very big, and very clean. The beds are very comfortable, and the furniture is updated.  The breakfast is really good, with cinnamon rolls, pancakes, eggs, and cereals. I would recommend this hotel to anyone who is traveling in the Houston area. </t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r133804955-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133804955</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>SUPER GREAT!!!</t>
+  </si>
+  <si>
+    <t>Excellent option in Houston, we paid 112 Dlls per night and it was GREAT, recently renewed, LCDs, amazing bed, good service and great location!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r127332355-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127332355</t>
+  </si>
+  <si>
+    <t>04/05/2012</t>
+  </si>
+  <si>
+    <t>New Hotel, just a little hard to find</t>
+  </si>
+  <si>
+    <t>Great property by Holiday Inn Express. If you have stayed in one of these before, you'll know what to expect. Room was very clean and modern with micro wave and small fridge.Breakfast was typical with scrambled eggs, bacon as the hot items. GPS lead us to the wrong end of the street, not a biggy, when I called  to ask directions was given easy directions. Staff was very helpful as we had luggage that was misplaced by AA delivered over night. Was a great jumping off point for our trip west of Houston .</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r119944933-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119944933</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Brief stay</t>
+  </si>
+  <si>
+    <t>Room was clean, I enjoyed the bathtub.  Wished there was a hot tub with the pool.  My only complaint was that the wheel on my business chair was broken.  The staff was friendly.  I liked the layout of the lobby and the breakfast area.  The eggs, bacon, and sausage with gravy was good.  There are several places to eat within walking distance.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r115228231-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115228231</t>
+  </si>
+  <si>
+    <t>07/10/2011</t>
+  </si>
+  <si>
+    <t>This is why you stay at HIEX - a high standard every time. And with Texas style!</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable. Really great Texas flair in it's design. This is why I stay at HIEX consistently. No surprises, always a minimum standard of cleanliness and customer service orientation, and at a price that doesn't break the bank. Not the cheapest in town, but c'mon, do you really want to stay a the cheapest in town?! Great hotel -very clean. Gotta love that.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r95497095-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>95497095</t>
+  </si>
+  <si>
+    <t>02/04/2011</t>
+  </si>
+  <si>
+    <t>Disaster  Holiday Inn. ...room was in need of major repair ..bed like a board</t>
+  </si>
+  <si>
+    <t>We stay at Holiday inns Often in nine different cities !  This Holiday. inn had only one good thing...the front desk clerk was wonderful.  BUT it was downhill after that. my firstl floor room was handicapped and is disrepair.  The bedding was spotted. the mattress was like sleeping on plywood and the shower was not clean YUCK. And UGH.  I then sent an e.mail to someone named MINA thar works for the Holiday Innmain office and received a stupid non responsive did not care reply.   U gh .  Thanks ..but no. Thanks.  I will tell at least thirty people I work with about this disaster hotel. if they do not renovate soon...well..Then they should close...awful experience for sureMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>We stay at Holiday inns Often in nine different cities !  This Holiday. inn had only one good thing...the front desk clerk was wonderful.  BUT it was downhill after that. my firstl floor room was handicapped and is disrepair.  The bedding was spotted. the mattress was like sleeping on plywood and the shower was not clean YUCK. And UGH.  I then sent an e.mail to someone named MINA thar works for the Holiday Innmain office and received a stupid non responsive did not care reply.   U gh .  Thanks ..but no. Thanks.  I will tell at least thirty people I work with about this disaster hotel. if they do not renovate soon...well..Then they should close...awful experience for sureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r71061864-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>71061864</t>
+  </si>
+  <si>
+    <t>07/15/2010</t>
+  </si>
+  <si>
+    <t>Not as nice as most Holiday Inn Express properties.</t>
+  </si>
+  <si>
+    <t>While I did not have any problems with my stay, the property appeared to be older, and perhaps one that was formerly something else.  This included the room furnishings.  My room, which was considered a King Executive, was smaller than virtually any room I've ever been in.  It was overwhelmed by a huge wall unit that served as the closets and drawers, as well as the TV location.  It appeared to be an old piece of furniture.  The area for the TV would have accommodated a  36" TV, but the TV was probably a 10 yr old 21".  The carpeting in the room was also dated.  I would stay somewhere else the next time I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>While I did not have any problems with my stay, the property appeared to be older, and perhaps one that was formerly something else.  This included the room furnishings.  My room, which was considered a King Executive, was smaller than virtually any room I've ever been in.  It was overwhelmed by a huge wall unit that served as the closets and drawers, as well as the TV location.  It appeared to be an old piece of furniture.  The area for the TV would have accommodated a  36" TV, but the TV was probably a 10 yr old 21".  The carpeting in the room was also dated.  I would stay somewhere else the next time I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r61601554-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>61601554</t>
+  </si>
+  <si>
+    <t>04/15/2010</t>
+  </si>
+  <si>
+    <t>Customer service is lacking.  Eye contact is non-existent.</t>
+  </si>
+  <si>
+    <t>The hotel is comfortable and clean.  Usual selection of Holiday Inn breakfast is availalbe.  Well made and cleanly presented.  However, the front desk staff have no idea what constitutes good customer service.  We checked in and they ran through all the usual prepared speech.  It gets boring once you have heard it so many times.  They ran through the speech so quickly - must be bored themselves with repition - that I had to ask a couple of questions for clarity.  I went down to ask for toothpaste and had to wait for some time for the staff to complete their conversation before I was acknowledged.  When I asked for the toothpash - the sign encourages you to ask if you forget - the look I received from the man at the desk made me feel like some kind of beggar.  Upon checking out the girl at the desk was tapping away at the computer.  No one else around but she didn't acknowledge me at all.  Whilst still looking at her computer screen she said - checking out? Room number? - without lifting her eyes from the screen.  The bill was printed and presented to me again whilst she looked at the screen.
+Come on.  At least acknowledge the guests whithout which you would NOT have a job.
+Would I recommend the hotel?  It's clean and  safe.  Although we had a room facing the freeway the noise did not keep...The hotel is comfortable and clean.  Usual selection of Holiday Inn breakfast is availalbe.  Well made and cleanly presented.  However, the front desk staff have no idea what constitutes good customer service.  We checked in and they ran through all the usual prepared speech.  It gets boring once you have heard it so many times.  They ran through the speech so quickly - must be bored themselves with repition - that I had to ask a couple of questions for clarity.  I went down to ask for toothpaste and had to wait for some time for the staff to complete their conversation before I was acknowledged.  When I asked for the toothpash - the sign encourages you to ask if you forget - the look I received from the man at the desk made me feel like some kind of beggar.  Upon checking out the girl at the desk was tapping away at the computer.  No one else around but she didn't acknowledge me at all.  Whilst still looking at her computer screen she said - checking out? Room number? - without lifting her eyes from the screen.  The bill was printed and presented to me again whilst she looked at the screen.Come on.  At least acknowledge the guests whithout which you would NOT have a job.Would I recommend the hotel?  It's clean and  safe.  Although we had a room facing the freeway the noise did not keep us from sleeping.  But it does lack customer service.  There are plenty of hotels alongside this one.  If I went to that area again, I'd spend my money elsewhere.  It might be better appreciated!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>The hotel is comfortable and clean.  Usual selection of Holiday Inn breakfast is availalbe.  Well made and cleanly presented.  However, the front desk staff have no idea what constitutes good customer service.  We checked in and they ran through all the usual prepared speech.  It gets boring once you have heard it so many times.  They ran through the speech so quickly - must be bored themselves with repition - that I had to ask a couple of questions for clarity.  I went down to ask for toothpaste and had to wait for some time for the staff to complete their conversation before I was acknowledged.  When I asked for the toothpash - the sign encourages you to ask if you forget - the look I received from the man at the desk made me feel like some kind of beggar.  Upon checking out the girl at the desk was tapping away at the computer.  No one else around but she didn't acknowledge me at all.  Whilst still looking at her computer screen she said - checking out? Room number? - without lifting her eyes from the screen.  The bill was printed and presented to me again whilst she looked at the screen.
+Come on.  At least acknowledge the guests whithout which you would NOT have a job.
+Would I recommend the hotel?  It's clean and  safe.  Although we had a room facing the freeway the noise did not keep...The hotel is comfortable and clean.  Usual selection of Holiday Inn breakfast is availalbe.  Well made and cleanly presented.  However, the front desk staff have no idea what constitutes good customer service.  We checked in and they ran through all the usual prepared speech.  It gets boring once you have heard it so many times.  They ran through the speech so quickly - must be bored themselves with repition - that I had to ask a couple of questions for clarity.  I went down to ask for toothpaste and had to wait for some time for the staff to complete their conversation before I was acknowledged.  When I asked for the toothpash - the sign encourages you to ask if you forget - the look I received from the man at the desk made me feel like some kind of beggar.  Upon checking out the girl at the desk was tapping away at the computer.  No one else around but she didn't acknowledge me at all.  Whilst still looking at her computer screen she said - checking out? Room number? - without lifting her eyes from the screen.  The bill was printed and presented to me again whilst she looked at the screen.Come on.  At least acknowledge the guests whithout which you would NOT have a job.Would I recommend the hotel?  It's clean and  safe.  Although we had a room facing the freeway the noise did not keep us from sleeping.  But it does lack customer service.  There are plenty of hotels alongside this one.  If I went to that area again, I'd spend my money elsewhere.  It might be better appreciated!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r39594021-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>39594021</t>
+  </si>
+  <si>
+    <t>09/02/2009</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay.  The staff friendly and helpful. Rooms are comfortable and clean. Hotel is quite considering you are close to freeway. The breakfast is excellent.  I would go back and stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r11512373-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>11512373</t>
+  </si>
+  <si>
+    <t>12/12/2007</t>
+  </si>
+  <si>
+    <t>Incompetent management</t>
+  </si>
+  <si>
+    <t>They assigned me a room which had guests for the past 2 days and had not checked out yet. When I opened the door to enter the room I was allotted, I was shocked to see a person sitting inside the room.  When I went back and complained they did not bother to apologize. They gave me another room which was reeking with smoke smell and had to go again to front desk to get another room.All this drama took more than 30  minutes of my vaiuable time in the evening. I was tired after my trip to Houston and was looking forward to rest and instead I wasted 30 minutes going up and down the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>They assigned me a room which had guests for the past 2 days and had not checked out yet. When I opened the door to enter the room I was allotted, I was shocked to see a person sitting inside the room.  When I went back and complained they did not bother to apologize. They gave me another room which was reeking with smoke smell and had to go again to front desk to get another room.All this drama took more than 30  minutes of my vaiuable time in the evening. I was tired after my trip to Houston and was looking forward to rest and instead I wasted 30 minutes going up and down the hotel.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1466,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1498,2679 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>191</v>
+      </c>
+      <c r="X19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>199</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>200</v>
+      </c>
+      <c r="X20" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>217</v>
+      </c>
+      <c r="X22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>240</v>
+      </c>
+      <c r="X25" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>262</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>269</v>
+      </c>
+      <c r="X29" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>277</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>278</v>
+      </c>
+      <c r="X30" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>286</v>
+      </c>
+      <c r="X31" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>289</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>290</v>
+      </c>
+      <c r="J32" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" t="s">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s">
+        <v>293</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>294</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>294</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K34" t="s">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s">
+        <v>304</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>305</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J35" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s">
+        <v>309</v>
+      </c>
+      <c r="L35" t="s">
+        <v>310</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>311</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" t="s">
+        <v>319</v>
+      </c>
+      <c r="K37" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>322</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>325</v>
+      </c>
+      <c r="J38" t="s">
+        <v>326</v>
+      </c>
+      <c r="K38" t="s">
+        <v>327</v>
+      </c>
+      <c r="L38" t="s">
+        <v>328</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>329</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>331</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>332</v>
+      </c>
+      <c r="J39" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" t="s">
+        <v>334</v>
+      </c>
+      <c r="L39" t="s">
+        <v>335</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>336</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>338</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>339</v>
+      </c>
+      <c r="J40" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s">
+        <v>341</v>
+      </c>
+      <c r="L40" t="s">
+        <v>342</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>343</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>345</v>
+      </c>
+      <c r="J41" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" t="s">
+        <v>347</v>
+      </c>
+      <c r="L41" t="s">
+        <v>348</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>349</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_325.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_325.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="548">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r590700038-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1197126</t>
+  </si>
+  <si>
+    <t>590700038</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Great staffs, clean rooms and nice breakfast</t>
+  </si>
+  <si>
+    <t>Eric was really nice . Thanks mate . I had a great time with you guys. The rooms were clean and the breakfast was sooo lovely . I would definitely tell me friends back home about this place . It made my trip worth it .</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r589531839-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1197126</t>
-  </si>
-  <si>
     <t>589531839</t>
   </si>
   <si>
@@ -174,9 +195,6 @@
     <t>Thank you! Spacious room. Friendly staffs . They cleaned my room twice in a day . My child made a mess in the room and so I called to have it cleaned again (if possible). They sent someone right away who tidied it up . I was expected to be turned down and they were very polite and happy to help. I would recommend this 100 percent . Amazing staffs makes you feel at home , great location. Great gym and amenities and good scenery . I love it. Thank you</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
@@ -204,6 +222,24 @@
     <t>Stayed here for 5 nights and I enjoyed my stay. Are there better hotels?...sure, but when the office is in the neighbourhood this hotel is a good choice. My room 518 was not damp, had a renovated bathroom and was well maintained. Front desk was awesome, great service. Ask a question and they will try there best. Jasmine you are a star!The hotel offers free wine and beer late in the afternoon. In the morning the BF offers a wide choice. BF was included in the day rate. There were plenty if news papers to read. The only thing that disturbed me was the noise of the traffic as my room was facing I-10. Not a suprise because my bedroom at home is really quiet. I will come back. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r520720230-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520720230</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelter from the storm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never have I seen such dedicated, committed staff who worked round the clock for several days during Hurricane Harvey. We evacuated our neighborhood for this hotel, arriving in tears and fearing we wouldn't get a room. The front desk guys took care of us and helped me book the last three rooms for evacuated friends. They allowed everyone to bring their pets, turned their meeting room into a playroom, and kept every guest warm, dry and fed. They were absolute angels and I'll never forget their service.  </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r499267868-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -225,6 +261,42 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r473912871-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473912871</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Good Choice for a Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is located right off the freeway (IH 10) on very west side of Houston.  Easy to get to and plenty of parking.  Staff was very friendly and accommodating.  The room was clean and quite comfortable.  We have stayed here several times before and we still have not been disappointed in anything.  The breakfast was very good with plenty of choices.Room was fine, but the doors sure do transmit noise from the hall.  People were normal...not noisy or loud, but we could hear what they were saying as they walked by.The free wifi was good, but could have been faster.  Enjoyed the stay and will return.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r473645515-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473645515</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Those Darn Cookies</t>
+  </si>
+  <si>
+    <t>There is so much more to travel then just the look or the status. I have to admit when my company sent me to a Holiday Inn my first reaction was that of a snob. Which really is odd for me as some of my best experiences have been in small out of the way places. This Holiday Inn is in the middle of the action which is Houston, Texas. Maybe that is where my first thought came from, I don't know but what I do know is that I was so very wrong. This Holiday Inn has class, it has style, warmth, and the best darn chocolate chip cookies that I have ever had in my life! It has a happy hour for two hours every afternoon and it may be only two taps of basic beer and some box wine but who cares it's free!! I don't say this from a drinkers perspective I say this from someone who travels a great deal and is in the hospitality industry himself. The complimentary drinks and food from happy hour to the always present fresh lemonade and iced tea, cookies and snacks. The breakfast buffet that rivals any that I have had anywhere! I am serious when I say that I have been to many five star hotels that do not have a breakfast buffet with half as much personality and warmth. Which is a reflection of the entire staff....There is so much more to travel then just the look or the status. I have to admit when my company sent me to a Holiday Inn my first reaction was that of a snob. Which really is odd for me as some of my best experiences have been in small out of the way places. This Holiday Inn is in the middle of the action which is Houston, Texas. Maybe that is where my first thought came from, I don't know but what I do know is that I was so very wrong. This Holiday Inn has class, it has style, warmth, and the best darn chocolate chip cookies that I have ever had in my life! It has a happy hour for two hours every afternoon and it may be only two taps of basic beer and some box wine but who cares it's free!! I don't say this from a drinkers perspective I say this from someone who travels a great deal and is in the hospitality industry himself. The complimentary drinks and food from happy hour to the always present fresh lemonade and iced tea, cookies and snacks. The breakfast buffet that rivals any that I have had anywhere! I am serious when I say that I have been to many five star hotels that do not have a breakfast buffet with half as much personality and warmth. Which is a reflection of the entire staff. I could have taken cabs to the office from the hotel or the local shopping that I had to do for my job but I didn't need to. The hotel shuttled me everywhere I had to go anytime of day with big smiles and friendly conversations. The lady that drove in the morning was from Jamaica and I learned so much from talking with her that next vacation I am island bound! Front desk incredible, housekeeping invisible. I go to my room and mess it up return after my day and like magic it is spotless again but you never see them coming or going...invisible. I read some of the other reviews and I know everyone has different standards and some people are just never happy but when I stay at a place like this one with the warmth, friendliness and open arms...Well how can I not lavish upon them the praise they deserve. Finally for all of you business travelers with business needs there is nothing these fine people At Holiday Inn Express cannot help you with. Happy travels...Oh, P.S. Be careful of those darn cookies they are addicting!MoreShow less</t>
+  </si>
+  <si>
+    <t>There is so much more to travel then just the look or the status. I have to admit when my company sent me to a Holiday Inn my first reaction was that of a snob. Which really is odd for me as some of my best experiences have been in small out of the way places. This Holiday Inn is in the middle of the action which is Houston, Texas. Maybe that is where my first thought came from, I don't know but what I do know is that I was so very wrong. This Holiday Inn has class, it has style, warmth, and the best darn chocolate chip cookies that I have ever had in my life! It has a happy hour for two hours every afternoon and it may be only two taps of basic beer and some box wine but who cares it's free!! I don't say this from a drinkers perspective I say this from someone who travels a great deal and is in the hospitality industry himself. The complimentary drinks and food from happy hour to the always present fresh lemonade and iced tea, cookies and snacks. The breakfast buffet that rivals any that I have had anywhere! I am serious when I say that I have been to many five star hotels that do not have a breakfast buffet with half as much personality and warmth. Which is a reflection of the entire staff....There is so much more to travel then just the look or the status. I have to admit when my company sent me to a Holiday Inn my first reaction was that of a snob. Which really is odd for me as some of my best experiences have been in small out of the way places. This Holiday Inn is in the middle of the action which is Houston, Texas. Maybe that is where my first thought came from, I don't know but what I do know is that I was so very wrong. This Holiday Inn has class, it has style, warmth, and the best darn chocolate chip cookies that I have ever had in my life! It has a happy hour for two hours every afternoon and it may be only two taps of basic beer and some box wine but who cares it's free!! I don't say this from a drinkers perspective I say this from someone who travels a great deal and is in the hospitality industry himself. The complimentary drinks and food from happy hour to the always present fresh lemonade and iced tea, cookies and snacks. The breakfast buffet that rivals any that I have had anywhere! I am serious when I say that I have been to many five star hotels that do not have a breakfast buffet with half as much personality and warmth. Which is a reflection of the entire staff. I could have taken cabs to the office from the hotel or the local shopping that I had to do for my job but I didn't need to. The hotel shuttled me everywhere I had to go anytime of day with big smiles and friendly conversations. The lady that drove in the morning was from Jamaica and I learned so much from talking with her that next vacation I am island bound! Front desk incredible, housekeeping invisible. I go to my room and mess it up return after my day and like magic it is spotless again but you never see them coming or going...invisible. I read some of the other reviews and I know everyone has different standards and some people are just never happy but when I stay at a place like this one with the warmth, friendliness and open arms...Well how can I not lavish upon them the praise they deserve. Finally for all of you business travelers with business needs there is nothing these fine people At Holiday Inn Express cannot help you with. Happy travels...Oh, P.S. Be careful of those darn cookies they are addicting!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r457583824-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -306,6 +378,57 @@
     <t>This was a great surprise. They have a very nice place in there and the service was very friendly and attentive. I has the steakhouse and it was a great quantity steak that was cooked perfectly. I will definitely go there again. Everyone really liked their Dinners.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r364902809-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364902809</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Not The Best Stay, but OK</t>
+  </si>
+  <si>
+    <t>This is a nice HI Express and is well decorated and very comfortable in terms of the overall hotel experience.  There is plenty of parking and the staff was very courteous and helpful.  But, there are a number of small issues that caused me to only give it an average rating.  
+First, our electronic keys worked the first day, but not the second.  So, after getting all the way to our room carrying packages and things, could not get in.  Had to go all the way back down and get new keys.  No big deal, but an excellent hotel would not have that problem.  It is simply a matter of coding the key properly when you check in.  Come on!
+The AC cooled just fine, but all it did was pump more humidity into the room and pumped none out!  Made the entire time in the room to be humid and clammy.  Again, a first class hotel would not allow this to happen.  Service personnel are in the room every day and it only takes about 2 minutes in the room to figure out there is a problem.
+The bed was made VERY tight, which was fine.  But they lap the blanket about3 feet or so under the foot end of the mattress.  So, when you get in bed, you can't pull it up past your waist!  Then, when you do manage to pull it free, out comes the sheets...This is a nice HI Express and is well decorated and very comfortable in terms of the overall hotel experience.  There is plenty of parking and the staff was very courteous and helpful.  But, there are a number of small issues that caused me to only give it an average rating.  First, our electronic keys worked the first day, but not the second.  So, after getting all the way to our room carrying packages and things, could not get in.  Had to go all the way back down and get new keys.  No big deal, but an excellent hotel would not have that problem.  It is simply a matter of coding the key properly when you check in.  Come on!The AC cooled just fine, but all it did was pump more humidity into the room and pumped none out!  Made the entire time in the room to be humid and clammy.  Again, a first class hotel would not allow this to happen.  Service personnel are in the room every day and it only takes about 2 minutes in the room to figure out there is a problem.The bed was made VERY tight, which was fine.  But they lap the blanket about3 feet or so under the foot end of the mattress.  So, when you get in bed, you can't pull it up past your waist!  Then, when you do manage to pull it free, out comes the sheets too!  Again, not first class by any means.  This happened both nights we were there.On one morning at around 8:30 am the lady in charge of maid service came down the third floor hall hollering all the way to the end of the hall where the maids were congregating.  Not very good for people trying to sleep.The TV channel listing card did not match the channels actually offered on the TV.  Again, very minor, but aggravating.They offer free wifi, but it was quite slow and took forever for pages to download.  Don't they have the ability to go through the hotel and test it to make sure it works???The breakfast was excellent both mornings and ran from 6 to 10 I think.  We got there at about 9:30 both mornings and it was still full of all offerings and I noticed the lady refilling items at 9:50.  Most hotels would have let it start running out around 8:30 or so, but this one did an excellent job.  The tables were kept clean and so was the food service area.I think the next time I am in this area I will stay somewhere else.  For the money spent, I just don't feel like they paid much attention to details, so I can solve the problem by going elsewhere next time!  I'm not looking for perfection and am not picky, but I expect to get what I pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>This is a nice HI Express and is well decorated and very comfortable in terms of the overall hotel experience.  There is plenty of parking and the staff was very courteous and helpful.  But, there are a number of small issues that caused me to only give it an average rating.  
+First, our electronic keys worked the first day, but not the second.  So, after getting all the way to our room carrying packages and things, could not get in.  Had to go all the way back down and get new keys.  No big deal, but an excellent hotel would not have that problem.  It is simply a matter of coding the key properly when you check in.  Come on!
+The AC cooled just fine, but all it did was pump more humidity into the room and pumped none out!  Made the entire time in the room to be humid and clammy.  Again, a first class hotel would not allow this to happen.  Service personnel are in the room every day and it only takes about 2 minutes in the room to figure out there is a problem.
+The bed was made VERY tight, which was fine.  But they lap the blanket about3 feet or so under the foot end of the mattress.  So, when you get in bed, you can't pull it up past your waist!  Then, when you do manage to pull it free, out comes the sheets...This is a nice HI Express and is well decorated and very comfortable in terms of the overall hotel experience.  There is plenty of parking and the staff was very courteous and helpful.  But, there are a number of small issues that caused me to only give it an average rating.  First, our electronic keys worked the first day, but not the second.  So, after getting all the way to our room carrying packages and things, could not get in.  Had to go all the way back down and get new keys.  No big deal, but an excellent hotel would not have that problem.  It is simply a matter of coding the key properly when you check in.  Come on!The AC cooled just fine, but all it did was pump more humidity into the room and pumped none out!  Made the entire time in the room to be humid and clammy.  Again, a first class hotel would not allow this to happen.  Service personnel are in the room every day and it only takes about 2 minutes in the room to figure out there is a problem.The bed was made VERY tight, which was fine.  But they lap the blanket about3 feet or so under the foot end of the mattress.  So, when you get in bed, you can't pull it up past your waist!  Then, when you do manage to pull it free, out comes the sheets too!  Again, not first class by any means.  This happened both nights we were there.On one morning at around 8:30 am the lady in charge of maid service came down the third floor hall hollering all the way to the end of the hall where the maids were congregating.  Not very good for people trying to sleep.The TV channel listing card did not match the channels actually offered on the TV.  Again, very minor, but aggravating.They offer free wifi, but it was quite slow and took forever for pages to download.  Don't they have the ability to go through the hotel and test it to make sure it works???The breakfast was excellent both mornings and ran from 6 to 10 I think.  We got there at about 9:30 both mornings and it was still full of all offerings and I noticed the lady refilling items at 9:50.  Most hotels would have let it start running out around 8:30 or so, but this one did an excellent job.  The tables were kept clean and so was the food service area.I think the next time I am in this area I will stay somewhere else.  For the money spent, I just don't feel like they paid much attention to details, so I can solve the problem by going elsewhere next time!  I'm not looking for perfection and am not picky, but I expect to get what I pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r356099933-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356099933</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Quick Trip to Houston</t>
+  </si>
+  <si>
+    <t>Went to Houston with my family for my niece's birthday party. We like Holiday Inn Express Hotels and this was the one nearest our destination. The room was nice, neat and comfortable. The lobby was very nice. The breakfast was good, and there was plenty! The front desk staff were polite and helpful.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r350583589-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -369,24 +492,72 @@
     <t>I stayed at Holiday Inn Express. The location is perfect. The reception staff are very friendly, extremely helpful and were clearly very proud of their city. The rooms were well appointed and comfortable and the breakfast was delicious - you can squeeze your own fresh orange juice. A special thanks to reception staff -MOAZZAM who assisted me everything. This was well beyond good service Thank you.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r336857607-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336857607</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Bussiness trip</t>
+  </si>
+  <si>
+    <t>Good hotel with real very simple American breakfast. (It's boring when you have to eat it for 7 days)  Great wifi connection in the room. For business proposes is this a good hotel or for just one night with family's. A lot of restaurants in the area and a large shopping mall MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Good hotel with real very simple American breakfast. (It's boring when you have to eat it for 7 days)  Great wifi connection in the room. For business proposes is this a good hotel or for just one night with family's. A lot of restaurants in the area and a large shopping mall More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r327559640-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327559640</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Pathetic Hotel with no sense of Customer Service</t>
+  </si>
+  <si>
+    <t>Many times there was no breakfast for my family.There was no ink in the printer and were not able to print our boarding pass.Staff couldn't speak or understand English and was very difficult to communicate.Wifi was not working and they kept changing the password without informing usArrogant behaviour of the hotel staff was adding insult to the injuryNever even think of this hotel, not recommended for a family, couple or solo.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Many times there was no breakfast for my family.There was no ink in the printer and were not able to print our boarding pass.Staff couldn't speak or understand English and was very difficult to communicate.Wifi was not working and they kept changing the password without informing usArrogant behaviour of the hotel staff was adding insult to the injuryNever even think of this hotel, not recommended for a family, couple or solo.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r327555282-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
     <t>327555282</t>
   </si>
   <si>
-    <t>11/18/2015</t>
-  </si>
-  <si>
     <t>PATHETIC SERVICE</t>
   </si>
   <si>
     <t>i agree that the service of the hotel staff was rude and insulting, i was staying their at the same time and they are not equipped to handle group bookings or group pressure.they take full advance payment when u check in so  you are at the mercy of the staff if they decide to throw you out.they were actually rationing the breakfast and the words used were "people are over eating"   they need to train their staff in customer satisfactionMoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded December 3, 2015</t>
   </si>
   <si>
@@ -447,6 +618,51 @@
     <t>This is a good location at Dairy Ashford and I-10 (Katy Fwy) between Hwy 6 &amp; 8 close to restaurants and seemingly secure.  A few other similar hotels occupy the area giving one the feeling that businesses frequent these places with visiting staff or other related travelers.  Odd that this property has lots of security gates that appear to no longer be operable.  The public lobby and rooms look like they have just been updated.  Corridors on floors 2-5 have new carpet and wall coverings, but the wood trims look original and dated.  With a little further investment, this property would go from good to great.  RecommendedMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r294759063-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294759063</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t>We stayed there for one night as a stopover. This hotel is really clean, modern, excellent breakfast, friendly staff.Very pleased and will definitely stay again and will recommend to others. No complaints !MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>SophieCA13, Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>We stayed there for one night as a stopover. This hotel is really clean, modern, excellent breakfast, friendly staff.Very pleased and will definitely stay again and will recommend to others. No complaints !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r291267973-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291267973</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Almost perfect...</t>
+  </si>
+  <si>
+    <t>Hotel has the usual expected Holiday Inn Express clean and comfort.  The bathroom is updated with a glass door shower!  (No tub and plastic shower curtain). It would be perfect  if the glass door in room 309 would stay closed while you take a shower!   The door was not installed "in balance" so it takes a little effort to keep it closed in the shower. Also the water would gather a little due to the installed "hair-debris catcher".   Didn't have a chance to inform the management of the problem when I checked out because no one was at the counter. Hope the problem is only at room 309 and not more spread through out the hotel. I would return to this hotel next time in Houston. Hopefully the problem would be fixedMoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel has the usual expected Holiday Inn Express clean and comfort.  The bathroom is updated with a glass door shower!  (No tub and plastic shower curtain). It would be perfect  if the glass door in room 309 would stay closed while you take a shower!   The door was not installed "in balance" so it takes a little effort to keep it closed in the shower. Also the water would gather a little due to the installed "hair-debris catcher".   Didn't have a chance to inform the management of the problem when I checked out because no one was at the counter. Hope the problem is only at room 309 and not more spread through out the hotel. I would return to this hotel next time in Houston. Hopefully the problem would be fixedMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r282217161-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -519,6 +735,54 @@
     <t>I googled Holiday Inn, Pigeon Forge TN and it pulled up their webpage with an icon to click on to call for reservations.  It sent me to a third party, which was YOU instead to Holiday Inn.  I made the reservations with your agent with who I had to just about spell every word I gave him.  He gave me my confirmation number and said the email would be arriving which it did and I am glad it did.  When I got to the Hotel, the front desk clerk said that the credit card they were given by YOU was declined and I had to pay for the room with my credit card.  The next morning when I was checking out the manager asked to see the email confirmation from YOU and credited me back my refund of $114 which they charged me.  I questioned the amount since YOU charged me $157.  She stated that was their normal room rate.  You are a rip off and I will tell everyone I know not to go to your site to book anything.   More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r266477414-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266477414</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Decent Place, Location</t>
+  </si>
+  <si>
+    <t>Stayed here recently for business purposes. Appears that some improvements are being made, but was away during working/daytime hours. Bed was a little sprung on the edges which may be something they are replacing. For my visit, the hotel worked out ok. Hopefully on the next visit there will be some improvements. This review is for the HI Express on the Energy Corridor/Katy Freeway.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r261682973-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261682973</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>good place to stay</t>
+  </si>
+  <si>
+    <t>Overall good place to stay; undergoing renovations curently and the noise started a bit to early for me on a saturday morning. Clean rooms I didnt make it to the free breakfest all in all a nice place nothing special.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Chelsie O, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Overall good place to stay; undergoing renovations curently and the noise started a bit to early for me on a saturday morning. Clean rooms I didnt make it to the free breakfest all in all a nice place nothing special.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r261334318-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -534,15 +798,6 @@
     <t>Spent one night on business trip this last week. I was on the 5th floor. I asked for a renovated room after reading the buggy review. The hotel is undergoing renovations which were much needed. My view out the window was of a bunch of bathtubs, but no complaints here as I wasn't there to admire the view.  Tore up the bed &amp; peeked in the crannys &amp; nooks of room looking for bugs before bringing in my laptop &amp; travelbag. Slept great. The choice there seems to be a room that is older &amp; dingy and might be buggy VS a newly redone room that is a bit dusty. Housekeeping needs to step it up while all the work is going on. I would consider adding more staff till construction is all finished if I was management as the crew there was hardworking. Not a good hotel choice for anyone with asthma or breathing issues. Fine for overnight business travel.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
-    <t>Chelsie O, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded March 27, 2015</t>
-  </si>
-  <si>
-    <t>Responded March 27, 2015</t>
-  </si>
-  <si>
     <t>Spent one night on business trip this last week. I was on the 5th floor. I asked for a renovated room after reading the buggy review. The hotel is undergoing renovations which were much needed. My view out the window was of a bunch of bathtubs, but no complaints here as I wasn't there to admire the view.  Tore up the bed &amp; peeked in the crannys &amp; nooks of room looking for bugs before bringing in my laptop &amp; travelbag. Slept great. The choice there seems to be a room that is older &amp; dingy and might be buggy VS a newly redone room that is a bit dusty. Housekeeping needs to step it up while all the work is going on. I would consider adding more staff till construction is all finished if I was management as the crew there was hardworking. Not a good hotel choice for anyone with asthma or breathing issues. Fine for overnight business travel.More</t>
   </si>
   <si>
@@ -600,6 +855,51 @@
     <t>I spent a week at this property for work and was pleased with the room and the amenities offered. The location is great for work with energy business in the area and the hotel offers a shuttle to area businesses. The staff was very friendly and the breakfast was a well executed and typical HIE breakfast. I also enjoyed the free beer for happy hour every evening from 5:30-6:30. My room was clean and, while it wasn't anything out of the ordinary, I was satisfied with the bed and the overall room. The hotel is just started a renovation, so I assume everything will be new and refreshed in the next few months. One word of caution - one of my co-workers had bed bugs in his room and he had bites all over him after his first night there. The hotel promptly moved him to another room and no one else in our work group had any other issues. Hopefully it was an isolated incident. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r237486932-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237486932</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel with friendly staff.</t>
+  </si>
+  <si>
+    <t>I have stayed here several times while in the area on business.  The rooms are always clean and the staff is always friendly.  I left something in my room and Katy at the front desk was kind enough to run back up to the room to see if it was in there.  She didnt have to do it, she could have passed it off to the cleaning crew but she owned it and mailed me what I left.  Thanks again and will return next time I am in Houston.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r226768875-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226768875</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Ratings about right</t>
+  </si>
+  <si>
+    <t>Cheap as chips hotel with friendly enough staff, room was very tired and a bit grubby with a fairly unpleasant smell, bed comfy, wifi works ok, shower pretty weak all of which makes it pretty average but decent valueRobMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Chelsie O, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Cheap as chips hotel with friendly enough staff, room was very tired and a bit grubby with a fairly unpleasant smell, bed comfy, wifi works ok, shower pretty weak all of which makes it pretty average but decent valueRobMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r218073357-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -678,6 +978,57 @@
     <t>Stayed at the hotel for one night for a wedding.  It was a fare price and a nice property.  The front desk was nice and the room was comfortable.  The breakfast was plentiful and good.  We did not use any of the other amenities so I can't really speak to them.  I would stay there again when on that side of town.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r210196798-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210196798</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Beware Stay Away</t>
+  </si>
+  <si>
+    <t>we had to go to Houston for family emergency on June 5, 2014.  RUDE clerks.  When I checked in there was a discrepancy over room rate the clerk actually asked me if I wanted to continue with check in or go to another hotel.  I inquired if shuttle bus would take us to hospital and he said it is for business people only! we needed to extend our stay and they raised their rates so we had to move to another hotel down the street.  The breakfast bar was good only thing I found good about this HI express, have stayed at many and this is worst I have come across.  The parking lot is extremely dark even I would not park in it at night completely dark, I parked in the restaurant next door.  Chair had what looked like burn marks on it and just smudge marks.  Small pieces of wallpaper peeling off wall in bathroom. also there was mosquitoes in room everyday. Very disappointed in HI express at this locationMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded June 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2014</t>
+  </si>
+  <si>
+    <t>we had to go to Houston for family emergency on June 5, 2014.  RUDE clerks.  When I checked in there was a discrepancy over room rate the clerk actually asked me if I wanted to continue with check in or go to another hotel.  I inquired if shuttle bus would take us to hospital and he said it is for business people only! we needed to extend our stay and they raised their rates so we had to move to another hotel down the street.  The breakfast bar was good only thing I found good about this HI express, have stayed at many and this is worst I have come across.  The parking lot is extremely dark even I would not park in it at night completely dark, I parked in the restaurant next door.  Chair had what looked like burn marks on it and just smudge marks.  Small pieces of wallpaper peeling off wall in bathroom. also there was mosquitoes in room everyday. Very disappointed in HI express at this locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r209860396-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209860396</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel off and on for several months.  The hotel has a great location with a good steakhouse within an easy walk.  The rooms were clean and comfortable.  The breakfast bar was the typical Holiday Inn Express bar - limited selections but good.  The evening refreshments were cold and appreciated.  The staff were super friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Chelsie O, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel off and on for several months.  The hotel has a great location with a good steakhouse within an easy walk.  The rooms were clean and comfortable.  The breakfast bar was the typical Holiday Inn Express bar - limited selections but good.  The evening refreshments were cold and appreciated.  The staff were super friendly and helpful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r207906220-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -747,6 +1098,51 @@
     <t>Spent two nights there and enjoyed the entire stay.  Room was well decorated, comfortable, and clean.  Internet speed was excellent and was free.  Hotel was quiet, even though very close to I10.  Parking was close and plenty of it.  The free breakfast was a full breakfast and was quite good with plenty of options. Cinnamon rolls are to die for!Rate was quite reasonable and the staff were all friendly and very helpful.  Great place to stay and we highly recommend it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r199122737-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199122737</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t>I'll preface this by saying I'm not a holiday inn person. The lobby area was modern and well kept. The desk staff was helpful and personable. The room was dark and in need of an update. There's a gigantic piece of furniture that doubles as a closet and a tv stand that overpowers the space. The bed was comfy. The room showed signs of wear and tear. Wasn't dissatisfied and wasn't wowed. Would choose another location next time. MoreShow less</t>
+  </si>
+  <si>
+    <t>I'll preface this by saying I'm not a holiday inn person. The lobby area was modern and well kept. The desk staff was helpful and personable. The room was dark and in need of an update. There's a gigantic piece of furniture that doubles as a closet and a tv stand that overpowers the space. The bed was comfy. The room showed signs of wear and tear. Wasn't dissatisfied and wasn't wowed. Would choose another location next time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r197046698-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197046698</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Not happy with this Holiday Inn!</t>
+  </si>
+  <si>
+    <t>We had such a nice stay at a Holiday Inn just north of Houston, TX, on the return home the following week we decided to try another one near family in Houston. Nice hotel in what they call the "Energy Corridor". I knew the hotel would be expensive, anytime they add "Energy" to a name, you can bet they deal with business expense accounts. We figured, expensive is OK if it's worth the price. When walking into the lobby the two young men minding the desk were so busy playing they really didn't have time to pay any attention. We stood several minutes until my husband spoke sharply to them and they checked us in.  The room was nice with no towels in the bathroom. Called for towels, gave up waiting for the towels and went to have dinner with the family. Arrived back to the hotel after dinner, new young people at the desk in the lobby, not minding the "store" very well, and guess what, no towels. Called housekeeping again and received two towels quite awhile later. The bed was quarried from some granite pit, fortunately there was a good chair and sofa in the room.  Did not stay for breakfast, all we wanted was out of the hotel. This is by far the worst Holiday Inn we've stayed at and definitely not worth the price of admission. I pity the business people.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>We had such a nice stay at a Holiday Inn just north of Houston, TX, on the return home the following week we decided to try another one near family in Houston. Nice hotel in what they call the "Energy Corridor". I knew the hotel would be expensive, anytime they add "Energy" to a name, you can bet they deal with business expense accounts. We figured, expensive is OK if it's worth the price. When walking into the lobby the two young men minding the desk were so busy playing they really didn't have time to pay any attention. We stood several minutes until my husband spoke sharply to them and they checked us in.  The room was nice with no towels in the bathroom. Called for towels, gave up waiting for the towels and went to have dinner with the family. Arrived back to the hotel after dinner, new young people at the desk in the lobby, not minding the "store" very well, and guess what, no towels. Called housekeeping again and received two towels quite awhile later. The bed was quarried from some granite pit, fortunately there was a good chair and sofa in the room.  Did not stay for breakfast, all we wanted was out of the hotel. This is by far the worst Holiday Inn we've stayed at and definitely not worth the price of admission. I pity the business people.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r181281233-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -810,6 +1206,51 @@
     <t>After Embassy was a disaster and $100 more, I was more than satisfied with booking with Holiday Inn.  With Embassy I had to wait a long time for the phone to be answered and the person on the end wasn't very clear.  At Holiday Inn I could immediately speak with someone on the phone who was interested in helping me.  The hotel staff are very friendly and I certainly enjoy the manager's happy hour in the evening.  (There could of been more options available too like other Holiday Inns.)Downside is that some of the furniture in the room is a bit dated (and large), but the room was generally clean.  I also liked the gate around the hotel property.  Otherwise, I would have rated this a 5 of 5.  No restaurant as part of the hotel but there is a great burger place that is adjacent to the parking lot.Word is you need to go around the side of the hotel to get into the property, but otherwise things are okay.  I was able to take a free shuttle to my local business destination.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r172237121-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172237121</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Easy on and off the Katy Freeway, friendly employees</t>
+  </si>
+  <si>
+    <t>Nice hotel, very clean, and quiet even though it is close to busy I-10.  Employees were very friendly and helpful, especially the young woman who was in charge of the breakfast area.   She went out of her way to personally greet guests, and asked each one if there was anything additional that they needed while they were eating breakfast.  On my second day there, I arrived very close to the end of breakfast. She offered to help, and brought out a tray for me so that I could take breakfast back to my room for my son, who was still sleeping. It's just a little thing, but it was so considerate of her, and very much appreciated.The hotel is located right off of the I-10 Dairy Ashford Exit, and getting on and off of the highway is a breeze. We heard absolutely no highway noise, and there was also no noise from the nearby restaurant.  Very quiet hotel and a very nice 3 day stay!  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel, very clean, and quiet even though it is close to busy I-10.  Employees were very friendly and helpful, especially the young woman who was in charge of the breakfast area.   She went out of her way to personally greet guests, and asked each one if there was anything additional that they needed while they were eating breakfast.  On my second day there, I arrived very close to the end of breakfast. She offered to help, and brought out a tray for me so that I could take breakfast back to my room for my son, who was still sleeping. It's just a little thing, but it was so considerate of her, and very much appreciated.The hotel is located right off of the I-10 Dairy Ashford Exit, and getting on and off of the highway is a breeze. We heard absolutely no highway noise, and there was also no noise from the nearby restaurant.  Very quiet hotel and a very nice 3 day stay!  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r171127442-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171127442</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Ok Hotel, there are better options</t>
+  </si>
+  <si>
+    <t>I booked this hotel as it was just 2.5 miles from my work location. But I was not satisfied with the hotel. It looks pretty old. The price we pay for the room is more than many better and cheaper places in the area. I'll not stay here again would rather pick another hotel. Only plus is its right on I10.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded August 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2013</t>
+  </si>
+  <si>
+    <t>I booked this hotel as it was just 2.5 miles from my work location. But I was not satisfied with the hotel. It looks pretty old. The price we pay for the room is more than many better and cheaper places in the area. I'll not stay here again would rather pick another hotel. Only plus is its right on I10.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r167661013-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1326,51 @@
     <t>I thought all the Holiday Inn at least in North America were renovated to a certain standard, which in my opinion this location certainly did not meet.  Lobby decorations and room furniture were all very old.  Even if they are going for that classic Texas look it's not very well done at all.  Light bulbs in the rooms are all bright white, not pleasant.  Would not stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r153969161-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153969161</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>basic, but friendly</t>
+  </si>
+  <si>
+    <t>This property is smack dab in the middle of no-place-exciting, but since I had business nearby, it was a good choice for me.  The staff is the best--every one of them!  They went out of their ways to be friendly and accommodating.  The room itself was average, with some wear-and-tear showing on the furniture.  Still, the bed was comfortable and the hotel was quiet, so for just a couple of nights,  it was a good choice.  Breakfast was decent and the staff there, like elsewhere in the hotel, very helpful.  The steakhouse across the parking lot was a decent choice for dinner, offering everything from sandwiches to Texas-size steaks.  I thought it to be a little pricey for the location, but nothing way far out of whack.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston West-Energy Corridor, responded to this reviewResponded July 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2013</t>
+  </si>
+  <si>
+    <t>This property is smack dab in the middle of no-place-exciting, but since I had business nearby, it was a good choice for me.  The staff is the best--every one of them!  They went out of their ways to be friendly and accommodating.  The room itself was average, with some wear-and-tear showing on the furniture.  Still, the bed was comfortable and the hotel was quiet, so for just a couple of nights,  it was a good choice.  Breakfast was decent and the staff there, like elsewhere in the hotel, very helpful.  The steakhouse across the parking lot was a decent choice for dinner, offering everything from sandwiches to Texas-size steaks.  I thought it to be a little pricey for the location, but nothing way far out of whack.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r136514668-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136514668</t>
+  </si>
+  <si>
+    <t>08/07/2012</t>
+  </si>
+  <si>
+    <t>Can't beat it!</t>
+  </si>
+  <si>
+    <t>When you come to a city for the first time, you just do not know what to expect.  I'm grateful this Holiday Inn meet my expectations. The rooms were clean, spacious, and quite.  We compared other hotels in the area and this was the best deal for a mid-range price.  They have a complimentary shuttle that runs within a five mile radius to the hotel which was very helpful with getting to the training to/fro every day without additional costs.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r135842652-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1422,42 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r126947295-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126947295</t>
+  </si>
+  <si>
+    <t>03/29/2012</t>
+  </si>
+  <si>
+    <t>Amazing Stay!</t>
+  </si>
+  <si>
+    <t>We stayed here during a wedding in Houston and was an amazing weekend stay!  Rooms are soo comfortable and hotel had all the amenities to make the stay even more pleasant.  Breakfast was quick for us but really good!  Overall loved the hotel and we definitely would stay here again! Loved the nearby reastaurants and shopping as well made it even a plus!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r121386038-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121386038</t>
+  </si>
+  <si>
+    <t>12/04/2011</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>The first room they gave me had a horrible odor combined with deodorizer smell that overwhelmed me when I opened the door.  I asked for and was given a second room that met my expectations.  I had a King room that was a little on the small side.  There is a huge entertainment center/ wardrobe that stuck out so far that I barely had room to roll my suitcase between it and the bed.  The breakfast the next morning was okay other than the hard biscuits that obviously were left overs from another day.Texas Land &amp; Cattle Restaurant conveniently located next door.Otherwise this was your typical Holiday Inn Express.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r119944933-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -951,9 +1473,6 @@
     <t>Room was clean, I enjoyed the bathtub.  Wished there was a hot tub with the pool.  My only complaint was that the wheel on my business chair was broken.  The staff was friendly.  I liked the layout of the lobby and the breakfast area.  The eggs, bacon, and sausage with gravy was good.  There are several places to eat within walking distance.</t>
   </si>
   <si>
-    <t>October 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r115228231-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -988,6 +1507,42 @@
   </si>
   <si>
     <t>We stay at Holiday inns Often in nine different cities !  This Holiday. inn had only one good thing...the front desk clerk was wonderful.  BUT it was downhill after that. my firstl floor room was handicapped and is disrepair.  The bedding was spotted. the mattress was like sleeping on plywood and the shower was not clean YUCK. And UGH.  I then sent an e.mail to someone named MINA thar works for the Holiday Innmain office and received a stupid non responsive did not care reply.   U gh .  Thanks ..but no. Thanks.  I will tell at least thirty people I work with about this disaster hotel. if they do not renovate soon...well..Then they should close...awful experience for sureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r93570117-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>93570117</t>
+  </si>
+  <si>
+    <t>01/18/2011</t>
+  </si>
+  <si>
+    <t>Good Value for Business Trip</t>
+  </si>
+  <si>
+    <t>Stayed from a Saturday until Monday for a recent business trip. Compared prices to other nearby hotels and this place offered a better deal.  The room was clean and spacious enough to get around in.  They had an ample buffet breakfast Sunday morning. The staff was friendly and would help when needed.  There is a steak house restaurant 100 feet in front of the hotel and there is a Kinko's a few blocks down the street.  The hotel is located on the service road along the I-10, allowing for easy access to the freeway.  Overall, if your looking to spend a few nights on a business trip and don't expect anything fancy, this place is a great value for the moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed from a Saturday until Monday for a recent business trip. Compared prices to other nearby hotels and this place offered a better deal.  The room was clean and spacious enough to get around in.  They had an ample buffet breakfast Sunday morning. The staff was friendly and would help when needed.  There is a steak house restaurant 100 feet in front of the hotel and there is a Kinko's a few blocks down the street.  The hotel is located on the service road along the I-10, allowing for easy access to the freeway.  Overall, if your looking to spend a few nights on a business trip and don't expect anything fancy, this place is a great value for the moneyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r89094812-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89094812</t>
+  </si>
+  <si>
+    <t>12/05/2010</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>What a nice location. Nice hotel with a few extra ammenities. Great rate savings through RSI. Pleasant staff. Clean rooms. Good breakfast. Close by a mall and dining. I can't think of anything to complain about.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r71061864-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1052,6 +1607,48 @@
   </si>
   <si>
     <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r16977572-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>16977572</t>
+  </si>
+  <si>
+    <t>06/16/2008</t>
+  </si>
+  <si>
+    <t>Good Value For Your Money</t>
+  </si>
+  <si>
+    <t>The property seemed to cater more to corporate/business travelers which may be the reason that during our weekend stay we encountered very few other guests.  The property was relatively quiet -- even being located directly behind two restaurants and near I-10.  The hotel is relatively new and the only negative issues we encountered was the smell of fresh paint on the elevator doors and an over-sized armoir in the bedroom.  The complimentary breakfast buffet was well stocked and the seating in the lobby was ample for us to enjoy our breakfast without rubbing elbows with other guests.  We felt with its location and being a relatively new property we received a good value for our $89/night rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>The property seemed to cater more to corporate/business travelers which may be the reason that during our weekend stay we encountered very few other guests.  The property was relatively quiet -- even being located directly behind two restaurants and near I-10.  The hotel is relatively new and the only negative issues we encountered was the smell of fresh paint on the elevator doors and an over-sized armoir in the bedroom.  The complimentary breakfast buffet was well stocked and the seating in the lobby was ample for us to enjoy our breakfast without rubbing elbows with other guests.  We felt with its location and being a relatively new property we received a good value for our $89/night rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r14813746-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14813746</t>
+  </si>
+  <si>
+    <t>04/05/2008</t>
+  </si>
+  <si>
+    <t>My wife did a good job finding this place.</t>
+  </si>
+  <si>
+    <t>I called my wife and asked her to make a reservation for me somewhere in Houston, because I was down here for some business.  I had left on Friday morning without making a hotel reservation anywhere.  I needed to be close to where I was going to be conducting business, because you know how Houston is - it takes forever to get from one side to the other!  Anyway, after some much sleuthing my wife called me and told me that she had found a hotel close to I-10 after Addicks Rd, which is what I needed.  I enjoy staying at Holiday Inn Express, but some can be downright nasty!  This one was not.  When I pulled into the parking lot I was pleased to see a beautiful hotel lobby with an enormous breakfast area.Check in was very smooth and I got into my room very easily.  I was pleased with the size of the room - not too big yet not too small at the same time.  It was just right for what I needed.  The bed was as comfortable as can be and I loved the padded headboard.The only negative I can say about this hotel is that it is located on I-10 which seems to be constantly under some sort of construction, so getting in and out is somewhat of a challenge.  Aside from all of that - everything else was terrific!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>I called my wife and asked her to make a reservation for me somewhere in Houston, because I was down here for some business.  I had left on Friday morning without making a hotel reservation anywhere.  I needed to be close to where I was going to be conducting business, because you know how Houston is - it takes forever to get from one side to the other!  Anyway, after some much sleuthing my wife called me and told me that she had found a hotel close to I-10 after Addicks Rd, which is what I needed.  I enjoy staying at Holiday Inn Express, but some can be downright nasty!  This one was not.  When I pulled into the parking lot I was pleased to see a beautiful hotel lobby with an enormous breakfast area.Check in was very smooth and I got into my room very easily.  I was pleased with the size of the room - not too big yet not too small at the same time.  It was just right for what I needed.  The bed was as comfortable as can be and I loved the padded headboard.The only negative I can say about this hotel is that it is located on I-10 which seems to be constantly under some sort of construction, so getting in and out is somewhat of a challenge.  Aside from all of that - everything else was terrific!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1197126-r11512373-Holiday_Inn_Express_Hotel_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1664,13 +2261,13 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1684,7 +2281,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1700,34 +2297,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1741,7 +2338,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1757,56 +2354,48 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1822,56 +2411,48 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>85</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1887,7 +2468,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1896,43 +2477,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" t="s">
-        <v>94</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1948,7 +2529,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1957,47 +2538,45 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" t="s">
-        <v>103</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -2013,7 +2592,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2022,43 +2601,47 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -2074,7 +2657,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2083,33 +2666,31 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -2118,10 +2699,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -2137,7 +2722,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2146,49 +2731,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -2204,7 +2783,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2213,39 +2792,47 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -2261,56 +2848,48 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>139</v>
-      </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>140</v>
-      </c>
-      <c r="X13" t="s">
-        <v>141</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -2326,7 +2905,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2335,39 +2914,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -2383,7 +2970,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2392,34 +2979,32 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2427,14 +3012,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>157</v>
-      </c>
-      <c r="X15" t="s">
-        <v>158</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2450,7 +3031,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2459,38 +3040,34 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
         <v>5</v>
       </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2501,7 +3078,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -2517,7 +3094,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2526,49 +3103,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="X17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -2584,7 +3155,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2593,53 +3164,45 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -2655,7 +3218,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2664,43 +3227,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="X19" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -2716,7 +3285,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2725,49 +3294,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>199</v>
-      </c>
-      <c r="O20" t="s">
-        <v>68</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="X20" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
@@ -2783,7 +3342,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2792,25 +3351,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2826,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
@@ -2848,7 +3407,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2857,53 +3416,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -2919,7 +3468,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2928,37 +3477,33 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -2968,13 +3513,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
@@ -2990,7 +3535,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2999,49 +3544,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="N24" t="s">
-        <v>234</v>
-      </c>
-      <c r="O24" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
+        <v>219</v>
+      </c>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
@@ -3057,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3066,38 +3601,34 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3106,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="X25" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
@@ -3128,7 +3659,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3137,39 +3668,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
@@ -3185,7 +3726,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3194,53 +3735,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
+        <v>66</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
         <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>254</v>
-      </c>
-      <c r="X27" t="s">
-        <v>255</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3256,7 +3787,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3265,38 +3796,34 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3304,10 +3831,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>250</v>
+      </c>
+      <c r="X28" t="s">
+        <v>251</v>
+      </c>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
@@ -3323,7 +3854,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3332,49 +3863,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="K29" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="X29" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
@@ -3390,7 +3921,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3399,34 +3930,34 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
@@ -3439,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="X30" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31">
@@ -3461,7 +3992,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3470,51 +4001,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
@@ -3530,7 +4053,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3539,39 +4062,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33">
@@ -3587,7 +4114,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3596,49 +4123,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
         <v>5</v>
       </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
@@ -3654,7 +4181,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3663,34 +4190,30 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s">
-        <v>68</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -3702,10 +4225,14 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>298</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
       <c r="Y34" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
@@ -3721,7 +4248,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3730,49 +4257,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>306</v>
+      </c>
+      <c r="X35" t="s">
+        <v>307</v>
+      </c>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36">
@@ -3788,54 +4313,62 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" t="s">
+        <v>311</v>
+      </c>
+      <c r="K36" t="s">
         <v>312</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>313</v>
       </c>
-      <c r="J36" t="s">
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
         <v>314</v>
       </c>
-      <c r="K36" t="s">
-        <v>315</v>
-      </c>
-      <c r="L36" t="s">
-        <v>316</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+      <c r="O36" t="s">
+        <v>80</v>
+      </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
         <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S36" t="n">
         <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>315</v>
+      </c>
+      <c r="X36" t="s">
+        <v>316</v>
+      </c>
       <c r="Y36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
@@ -3851,7 +4384,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3860,37 +4393,37 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
         <v>1</v>
       </c>
-      <c r="N37" t="s">
-        <v>322</v>
-      </c>
-      <c r="O37" t="s">
-        <v>60</v>
-      </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
         <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -3899,10 +4432,14 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>323</v>
+      </c>
+      <c r="X37" t="s">
+        <v>324</v>
+      </c>
       <c r="Y37" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38">
@@ -3918,7 +4455,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3927,49 +4464,53 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J38" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K38" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L38" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
         <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>332</v>
+      </c>
+      <c r="X38" t="s">
+        <v>333</v>
+      </c>
       <c r="Y38" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39">
@@ -3985,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3994,49 +4535,53 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>340</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
         <v>2</v>
-      </c>
-      <c r="N39" t="s">
-        <v>336</v>
-      </c>
-      <c r="O39" t="s">
-        <v>68</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>341</v>
+      </c>
+      <c r="X39" t="s">
+        <v>342</v>
+      </c>
       <c r="Y39" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
@@ -4052,7 +4597,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4061,37 +4606,37 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="J40" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K40" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="O40" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -4103,7 +4648,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41">
@@ -4119,7 +4664,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4128,49 +4673,1909 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J41" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K41" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
         <v>349</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>355</v>
+      </c>
+      <c r="X41" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" t="s">
+        <v>360</v>
+      </c>
+      <c r="K42" t="s">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s">
+        <v>362</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>349</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>355</v>
+      </c>
+      <c r="X42" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>364</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>365</v>
+      </c>
+      <c r="J43" t="s">
+        <v>366</v>
+      </c>
+      <c r="K43" t="s">
+        <v>367</v>
+      </c>
+      <c r="L43" t="s">
+        <v>368</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>369</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>370</v>
+      </c>
+      <c r="X43" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+      <c r="J44" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" t="s">
+        <v>376</v>
+      </c>
+      <c r="L44" t="s">
+        <v>377</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>378</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>379</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>380</v>
+      </c>
+      <c r="J45" t="s">
+        <v>381</v>
+      </c>
+      <c r="K45" t="s">
+        <v>382</v>
+      </c>
+      <c r="L45" t="s">
+        <v>383</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>378</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>384</v>
+      </c>
+      <c r="X45" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>388</v>
+      </c>
+      <c r="J46" t="s">
+        <v>389</v>
+      </c>
+      <c r="K46" t="s">
+        <v>390</v>
+      </c>
+      <c r="L46" t="s">
+        <v>391</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>392</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>394</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>395</v>
+      </c>
+      <c r="J47" t="s">
+        <v>396</v>
+      </c>
+      <c r="K47" t="s">
+        <v>397</v>
+      </c>
+      <c r="L47" t="s">
+        <v>398</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>392</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>401</v>
+      </c>
+      <c r="J48" t="s">
+        <v>402</v>
+      </c>
+      <c r="K48" t="s">
+        <v>403</v>
+      </c>
+      <c r="L48" t="s">
+        <v>404</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>405</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>406</v>
+      </c>
+      <c r="X48" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>409</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>410</v>
+      </c>
+      <c r="J49" t="s">
+        <v>411</v>
+      </c>
+      <c r="K49" t="s">
+        <v>412</v>
+      </c>
+      <c r="L49" t="s">
+        <v>413</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>414</v>
+      </c>
+      <c r="X49" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>418</v>
+      </c>
+      <c r="J50" t="s">
+        <v>419</v>
+      </c>
+      <c r="K50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L50" t="s">
+        <v>421</v>
+      </c>
+      <c r="M50" t="n">
         <v>2</v>
       </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s">
-        <v>350</v>
+      <c r="N50" t="s">
+        <v>422</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>423</v>
+      </c>
+      <c r="X50" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>426</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>427</v>
+      </c>
+      <c r="J51" t="s">
+        <v>428</v>
+      </c>
+      <c r="K51" t="s">
+        <v>429</v>
+      </c>
+      <c r="L51" t="s">
+        <v>430</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>422</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>431</v>
+      </c>
+      <c r="X51" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>434</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>435</v>
+      </c>
+      <c r="J52" t="s">
+        <v>436</v>
+      </c>
+      <c r="K52" t="s">
+        <v>437</v>
+      </c>
+      <c r="L52" t="s">
+        <v>438</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>439</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>440</v>
+      </c>
+      <c r="X52" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>444</v>
+      </c>
+      <c r="J53" t="s">
+        <v>445</v>
+      </c>
+      <c r="K53" t="s">
+        <v>446</v>
+      </c>
+      <c r="L53" t="s">
+        <v>447</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>453</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>454</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>455</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>456</v>
+      </c>
+      <c r="J55" t="s">
+        <v>457</v>
+      </c>
+      <c r="K55" t="s">
+        <v>458</v>
+      </c>
+      <c r="L55" t="s">
+        <v>459</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>454</v>
+      </c>
+      <c r="O55" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>460</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>461</v>
+      </c>
+      <c r="J56" t="s">
+        <v>462</v>
+      </c>
+      <c r="K56" t="s">
+        <v>463</v>
+      </c>
+      <c r="L56" t="s">
+        <v>464</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>465</v>
+      </c>
+      <c r="O56" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>466</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>467</v>
+      </c>
+      <c r="J57" t="s">
+        <v>468</v>
+      </c>
+      <c r="K57" t="s">
+        <v>469</v>
+      </c>
+      <c r="L57" t="s">
+        <v>470</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>471</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" t="s">
+        <v>474</v>
+      </c>
+      <c r="K58" t="s">
+        <v>475</v>
+      </c>
+      <c r="L58" t="s">
+        <v>476</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>477</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>478</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>479</v>
+      </c>
+      <c r="J59" t="s">
+        <v>480</v>
+      </c>
+      <c r="K59" t="s">
+        <v>481</v>
+      </c>
+      <c r="L59" t="s">
+        <v>482</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>477</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>483</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>484</v>
+      </c>
+      <c r="J60" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" t="s">
+        <v>486</v>
+      </c>
+      <c r="L60" t="s">
+        <v>487</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>488</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>489</v>
+      </c>
+      <c r="J61" t="s">
+        <v>490</v>
+      </c>
+      <c r="K61" t="s">
+        <v>491</v>
+      </c>
+      <c r="L61" t="s">
+        <v>492</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>493</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>495</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>496</v>
+      </c>
+      <c r="J62" t="s">
+        <v>497</v>
+      </c>
+      <c r="K62" t="s">
+        <v>498</v>
+      </c>
+      <c r="L62" t="s">
+        <v>499</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>493</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>501</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>502</v>
+      </c>
+      <c r="J63" t="s">
+        <v>503</v>
+      </c>
+      <c r="K63" t="s">
+        <v>504</v>
+      </c>
+      <c r="L63" t="s">
+        <v>505</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>506</v>
+      </c>
+      <c r="O63" t="s">
+        <v>249</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>507</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>508</v>
+      </c>
+      <c r="J64" t="s">
+        <v>509</v>
+      </c>
+      <c r="K64" t="s">
+        <v>510</v>
+      </c>
+      <c r="L64" t="s">
+        <v>511</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>512</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>514</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>515</v>
+      </c>
+      <c r="J65" t="s">
+        <v>516</v>
+      </c>
+      <c r="K65" t="s">
+        <v>517</v>
+      </c>
+      <c r="L65" t="s">
+        <v>518</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>519</v>
+      </c>
+      <c r="O65" t="s">
+        <v>80</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>521</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>522</v>
+      </c>
+      <c r="J66" t="s">
+        <v>523</v>
+      </c>
+      <c r="K66" t="s">
+        <v>524</v>
+      </c>
+      <c r="L66" t="s">
+        <v>525</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>526</v>
+      </c>
+      <c r="O66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>527</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>528</v>
+      </c>
+      <c r="J67" t="s">
+        <v>529</v>
+      </c>
+      <c r="K67" t="s">
+        <v>530</v>
+      </c>
+      <c r="L67" t="s">
+        <v>531</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>532</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>534</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>535</v>
+      </c>
+      <c r="J68" t="s">
+        <v>536</v>
+      </c>
+      <c r="K68" t="s">
+        <v>537</v>
+      </c>
+      <c r="L68" t="s">
+        <v>538</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>539</v>
+      </c>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>22024</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>541</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>542</v>
+      </c>
+      <c r="J69" t="s">
+        <v>543</v>
+      </c>
+      <c r="K69" t="s">
+        <v>544</v>
+      </c>
+      <c r="L69" t="s">
+        <v>545</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>546</v>
+      </c>
+      <c r="O69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
